--- a/ConsoleApp/Storage/UserData.xlsx
+++ b/ConsoleApp/Storage/UserData.xlsx
@@ -1,19 +1,269 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Orient/Project/ConsoleApp/ConsoleApp/Storage/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07635436-ED70-0A4E-85BE-D31D7F45717D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="9060" yWindow="29560" windowWidth="30240" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>Leanne Graham</t>
+  </si>
+  <si>
+    <t>Bret</t>
+  </si>
+  <si>
+    <t>Sincere@april.biz</t>
+  </si>
+  <si>
+    <t>1-770-736-8031 x56442</t>
+  </si>
+  <si>
+    <t>hildegard.org</t>
+  </si>
+  <si>
+    <t>Romaguera-Crona|Multi-layered client-server neural-net|harness real-time e-markets</t>
+  </si>
+  <si>
+    <t>Ervin Howell</t>
+  </si>
+  <si>
+    <t>Antonette</t>
+  </si>
+  <si>
+    <t>Shanna@melissa.tv</t>
+  </si>
+  <si>
+    <t>010-692-6593 x09125</t>
+  </si>
+  <si>
+    <t>anastasia.net</t>
+  </si>
+  <si>
+    <t>Deckow-Crist|Proactive didactic contingency|synergize scalable supply-chains</t>
+  </si>
+  <si>
+    <t>Clementine Bauch</t>
+  </si>
+  <si>
+    <t>Samantha</t>
+  </si>
+  <si>
+    <t>Nathan@yesenia.net</t>
+  </si>
+  <si>
+    <t>1-463-123-4447</t>
+  </si>
+  <si>
+    <t>ramiro.info</t>
+  </si>
+  <si>
+    <t>Romaguera-Jacobson|Face to face bifurcated interface|e-enable strategic applications</t>
+  </si>
+  <si>
+    <t>Patricia Lebsack</t>
+  </si>
+  <si>
+    <t>Karianne</t>
+  </si>
+  <si>
+    <t>Julianne.OConner@kory.org</t>
+  </si>
+  <si>
+    <t>493-170-9623 x156</t>
+  </si>
+  <si>
+    <t>kale.biz</t>
+  </si>
+  <si>
+    <t>Robel-Corkery|Multi-tiered zero tolerance productivity|transition cutting-edge web services</t>
+  </si>
+  <si>
+    <t>Chelsey Dietrich</t>
+  </si>
+  <si>
+    <t>Kamren</t>
+  </si>
+  <si>
+    <t>Lucio_Hettinger@annie.ca</t>
+  </si>
+  <si>
+    <t>(254)954-1289</t>
+  </si>
+  <si>
+    <t>demarco.info</t>
+  </si>
+  <si>
+    <t>Keebler LLC|User-centric fault-tolerant solution|revolutionize end-to-end systems</t>
+  </si>
+  <si>
+    <t>Mrs. Dennis Schulist</t>
+  </si>
+  <si>
+    <t>Leopoldo_Corkery</t>
+  </si>
+  <si>
+    <t>Karley_Dach@jasper.info</t>
+  </si>
+  <si>
+    <t>1-477-935-8478 x6430</t>
+  </si>
+  <si>
+    <t>ola.org</t>
+  </si>
+  <si>
+    <t>Considine-Lockman|Synchronised bottom-line interface|e-enable innovative applications</t>
+  </si>
+  <si>
+    <t>Kurtis Weissnat</t>
+  </si>
+  <si>
+    <t>Elwyn.Skiles</t>
+  </si>
+  <si>
+    <t>Telly.Hoeger@billy.biz</t>
+  </si>
+  <si>
+    <t>210.067.6132</t>
+  </si>
+  <si>
+    <t>elvis.io</t>
+  </si>
+  <si>
+    <t>Johns Group|Configurable multimedia task-force|generate enterprise e-tailers</t>
+  </si>
+  <si>
+    <t>Nicholas Runolfsdottir V</t>
+  </si>
+  <si>
+    <t>Maxime_Nienow</t>
+  </si>
+  <si>
+    <t>Sherwood@rosamond.me</t>
+  </si>
+  <si>
+    <t>586.493.6943 x140</t>
+  </si>
+  <si>
+    <t>jacynthe.com</t>
+  </si>
+  <si>
+    <t>Abernathy Group|Implemented secondary concept|e-enable extensible e-tailers</t>
+  </si>
+  <si>
+    <t>Glenna Reichert</t>
+  </si>
+  <si>
+    <t>Delphine</t>
+  </si>
+  <si>
+    <t>Chaim_McDermott@dana.io</t>
+  </si>
+  <si>
+    <t>(775)976-6794 x41206</t>
+  </si>
+  <si>
+    <t>conrad.com</t>
+  </si>
+  <si>
+    <t>Yost and Sons|Switchable contextually-based project|aggregate real-time technologies</t>
+  </si>
+  <si>
+    <t>Clementina DuBuque</t>
+  </si>
+  <si>
+    <t>Moriah.Stanton</t>
+  </si>
+  <si>
+    <t>Rey.Padberg@karina.biz</t>
+  </si>
+  <si>
+    <t>024-648-3804</t>
+  </si>
+  <si>
+    <t>ambrose.net</t>
+  </si>
+  <si>
+    <t>Hoeger LLC|Centralized empowering task-force|target end-to-end models</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>Kattie Turnpike|Suite 198|Lebsackbury|31428-2261</t>
+  </si>
+  <si>
+    <t>Dayna Park|Suite 449|Bartholomebury|76495-3109</t>
+  </si>
+  <si>
+    <t>Rex Trail|Suite 280|Howemouth|58804-1099</t>
+  </si>
+  <si>
+    <t>Norberto Crossing|Apt. 950|South Christy|23505-1337</t>
+  </si>
+  <si>
+    <t>Skiles Walks|Suite 351|Roscoeview|33263</t>
+  </si>
+  <si>
+    <t>Hoeger Mall|Apt. 692|South Elvis|53919-4257</t>
+  </si>
+  <si>
+    <t>Douglas Extension|Suite 847|McKenziehaven|59590-4157</t>
+  </si>
+  <si>
+    <t>Victor Plains|Suite 879|Wisokyburgh|90566-7771</t>
+  </si>
+  <si>
+    <t>Kulas Light|Apt. 556|Gwenborough|92998-3874</t>
+  </si>
+  <si>
+    <t>Ellsworth Summit|Suite 729|Aliyaview</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -43,13 +293,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,301 +632,312 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="78.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>name</v>
-      </c>
-      <c r="C1" t="str">
-        <v>username</v>
-      </c>
-      <c r="D1" t="str">
-        <v>email</v>
-      </c>
-      <c r="E1" t="str">
-        <v>address</v>
-      </c>
-      <c r="F1" t="str">
-        <v>phone</v>
-      </c>
-      <c r="G1" t="str">
-        <v>website</v>
-      </c>
-      <c r="H1" t="str">
-        <v>company</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>Leanne Graham</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Bret</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Sincere@april.biz</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Kulas Light|Apt. 556|Gwenborough|92998-3874|-37.3159|81.1496</v>
-      </c>
-      <c r="F2" t="str">
-        <v>1-770-736-8031 x56442</v>
-      </c>
-      <c r="G2" t="str">
-        <v>hildegard.org</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Romaguera-Crona|Multi-layered client-server neural-net|harness real-time e-markets</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>Ervin Howell</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Antonette</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Shanna@melissa.tv</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Victor Plains|Suite 879|Wisokyburgh|90566-7771|-43.9509|-34.4618</v>
-      </c>
-      <c r="F3" t="str">
-        <v>010-692-6593 x09125</v>
-      </c>
-      <c r="G3" t="str">
-        <v>anastasia.net</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Deckow-Crist|Proactive didactic contingency|synergize scalable supply-chains</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>Clementine Bauch</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Samantha</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Nathan@yesenia.net</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Douglas Extension|Suite 847|McKenziehaven|59590-4157|-68.6102|-47.0653</v>
-      </c>
-      <c r="F4" t="str">
-        <v>1-463-123-4447</v>
-      </c>
-      <c r="G4" t="str">
-        <v>ramiro.info</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Romaguera-Jacobson|Face to face bifurcated interface|e-enable strategic applications</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>Patricia Lebsack</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Karianne</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Julianne.OConner@kory.org</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Hoeger Mall|Apt. 692|South Elvis|53919-4257|29.4572|-164.2990</v>
-      </c>
-      <c r="F5" t="str">
-        <v>493-170-9623 x156</v>
-      </c>
-      <c r="G5" t="str">
-        <v>kale.biz</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Robel-Corkery|Multi-tiered zero tolerance productivity|transition cutting-edge web services</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>Chelsey Dietrich</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Kamren</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Lucio_Hettinger@annie.ca</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Skiles Walks|Suite 351|Roscoeview|33263|-31.8129|62.5342</v>
-      </c>
-      <c r="F6" t="str">
-        <v>(254)954-1289</v>
-      </c>
-      <c r="G6" t="str">
-        <v>demarco.info</v>
-      </c>
-      <c r="H6" t="str">
-        <v>Keebler LLC|User-centric fault-tolerant solution|revolutionize end-to-end systems</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
-        <v>Mrs. Dennis Schulist</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Leopoldo_Corkery</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Karley_Dach@jasper.info</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Norberto Crossing|Apt. 950|South Christy|23505-1337|-71.4197|71.7478</v>
-      </c>
-      <c r="F7" t="str">
-        <v>1-477-935-8478 x6430</v>
-      </c>
-      <c r="G7" t="str">
-        <v>ola.org</v>
-      </c>
-      <c r="H7" t="str">
-        <v>Considine-Lockman|Synchronised bottom-line interface|e-enable innovative applications</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
-        <v>Kurtis Weissnat</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Elwyn.Skiles</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Telly.Hoeger@billy.biz</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Rex Trail|Suite 280|Howemouth|58804-1099|24.8918|21.8984</v>
-      </c>
-      <c r="F8" t="str">
-        <v>210.067.6132</v>
-      </c>
-      <c r="G8" t="str">
-        <v>elvis.io</v>
-      </c>
-      <c r="H8" t="str">
-        <v>Johns Group|Configurable multimedia task-force|generate enterprise e-tailers</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
-        <v>Nicholas Runolfsdottir V</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Maxime_Nienow</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Sherwood@rosamond.me</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Ellsworth Summit|Suite 729|Aliyaview|45169|-14.3990|-120.7677</v>
-      </c>
-      <c r="F9" t="str">
-        <v>586.493.6943 x140</v>
-      </c>
-      <c r="G9" t="str">
-        <v>jacynthe.com</v>
-      </c>
-      <c r="H9" t="str">
-        <v>Abernathy Group|Implemented secondary concept|e-enable extensible e-tailers</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
-        <v>Glenna Reichert</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Delphine</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Chaim_McDermott@dana.io</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Dayna Park|Suite 449|Bartholomebury|76495-3109|24.6463|-168.8889</v>
-      </c>
-      <c r="F10" t="str">
-        <v>(775)976-6794 x41206</v>
-      </c>
-      <c r="G10" t="str">
-        <v>conrad.com</v>
-      </c>
-      <c r="H10" t="str">
-        <v>Yost and Sons|Switchable contextually-based project|aggregate real-time technologies</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
-        <v>Clementina DuBuque</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Moriah.Stanton</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Rey.Padberg@karina.biz</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Kattie Turnpike|Suite 198|Lebsackbury|31428-2261|-38.2386|57.2232</v>
-      </c>
-      <c r="F11" t="str">
-        <v>024-648-3804</v>
-      </c>
-      <c r="G11" t="str">
-        <v>ambrose.net</v>
-      </c>
-      <c r="H11" t="str">
-        <v>Hoeger LLC|Centralized empowering task-force|target end-to-end models</v>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I13"/>
+    <ignoredError sqref="A1:I1 B9:D9 B3:D3 B2:D2 B4:D4 B5:D5 B6:D6 B7:D7 B8:D8 A12:I13 B10:D10 B11:D11 F8:I8 F11:I11 F10:I10 F9:I9 F7:I7 F6:I6 F5:I5 F4:I4 F3:I3 F2:I2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>